--- a/data/county.xlsx
+++ b/data/county.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kadai\html_hosono_20_Javascript_Championship\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA17880D-DA7C-48D7-828D-940DBBDEF0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B8855D-472E-441B-8253-95CB8102538D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{207D8E04-59EA-4E36-B639-981F26B8B67A}"/>
   </bookViews>
@@ -1297,7 +1297,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>country-No.</t>
+    <t>country-No</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/data/county.xlsx
+++ b/data/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kadai\html_hosono_20_Javascript_Championship\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B8855D-472E-441B-8253-95CB8102538D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF19683-5211-4FE0-B366-8ACE690DE37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{207D8E04-59EA-4E36-B639-981F26B8B67A}"/>
+    <workbookView xWindow="5376" yWindow="432" windowWidth="17256" windowHeight="11244" xr2:uid="{207D8E04-59EA-4E36-B639-981F26B8B67A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1293,11 +1293,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">country name </t>
+    <t>country-No</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>country-No</t>
+    <t xml:space="preserve">country-name </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1676,13 +1676,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B1" t="s">
         <v>418</v>
       </c>
       <c r="C1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">

--- a/data/county.xlsx
+++ b/data/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kadai\html_hosono_20_Javascript_Championship\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF19683-5211-4FE0-B366-8ACE690DE37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C57A8C4-4940-4CD2-994A-7338B52C30BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="432" windowWidth="17256" windowHeight="11244" xr2:uid="{207D8E04-59EA-4E36-B639-981F26B8B67A}"/>
+    <workbookView xWindow="5244" yWindow="780" windowWidth="17256" windowHeight="11244" xr2:uid="{207D8E04-59EA-4E36-B639-981F26B8B67A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1289,15 +1289,15 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>country-code</t>
+    <t>countryNo</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>country-No</t>
+    <t>countryCode</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">country-name </t>
+    <t>countryName</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1676,10 +1676,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
         <v>419</v>
-      </c>
-      <c r="B1" t="s">
-        <v>418</v>
       </c>
       <c r="C1" t="s">
         <v>420</v>
